--- a/_pyramidsFigure/germany.xlsx
+++ b/_pyramidsFigure/germany.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ru48fak\Documents\GitHub\excess-mortality-world\_pyramidsFigure\Germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ru48fak\Documents\GitHub\excess-mortality-world\_pyramidsFigure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1298" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1508,7 +1508,7 @@
         <v>326505</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>2015</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>298913</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>2015</v>
       </c>
@@ -1535,8 +1535,19 @@
       <c r="D82">
         <v>260419</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F82">
+        <f>SUM(C82:D112)</f>
+        <v>4536962.669999999</v>
+      </c>
+      <c r="I82">
+        <f xml:space="preserve"> 5679874 - 4536963</f>
+        <v>1142911</v>
+      </c>
+      <c r="J82">
+        <v>4536963</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>2015</v>
       </c>
@@ -1549,8 +1560,12 @@
       <c r="D83">
         <v>194658</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="I83">
+        <f>1142911/4536963</f>
+        <v>0.25191102506236002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>2015</v>
       </c>
@@ -1564,7 +1579,7 @@
         <v>178403</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>2015</v>
       </c>
@@ -1578,7 +1593,7 @@
         <v>165283</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>2015</v>
       </c>
@@ -1592,7 +1607,7 @@
         <v>156007.41</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>2015</v>
       </c>
@@ -1606,7 +1621,7 @@
         <v>136192.69</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>2015</v>
       </c>
@@ -1620,7 +1635,7 @@
         <v>118326.9</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>2015</v>
       </c>
@@ -1634,7 +1649,7 @@
         <v>92625.52</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>2015</v>
       </c>
@@ -1648,7 +1663,7 @@
         <v>73756.37</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>2015</v>
       </c>
@@ -1662,7 +1677,7 @@
         <v>58417.97</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>2015</v>
       </c>
@@ -1676,7 +1691,7 @@
         <v>41598.589999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>2015</v>
       </c>
@@ -1690,7 +1705,7 @@
         <v>31774.58</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>2015</v>
       </c>
@@ -1704,7 +1719,7 @@
         <v>25713.45</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>2015</v>
       </c>
@@ -1718,7 +1733,7 @@
         <v>19588.87</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>2015</v>
       </c>
@@ -3076,7 +3091,7 @@
         <v>372039</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>2020</v>
       </c>
@@ -3089,8 +3104,15 @@
       <c r="D193">
         <v>349356</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F193">
+        <f>SUM(C193:D223)</f>
+        <v>5679874.0700000012</v>
+      </c>
+      <c r="I193">
+        <v>5679874</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>2020</v>
       </c>
@@ -3104,7 +3126,7 @@
         <v>307110</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>2020</v>
       </c>
@@ -3118,7 +3140,7 @@
         <v>267416</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>2020</v>
       </c>
@@ -3132,7 +3154,7 @@
         <v>238102</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>2020</v>
       </c>
@@ -3146,7 +3168,7 @@
         <v>208306</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>2020</v>
       </c>
@@ -3160,7 +3182,7 @@
         <v>173057</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>2020</v>
       </c>
@@ -3174,7 +3196,7 @@
         <v>122162</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>2020</v>
       </c>
@@ -3188,7 +3210,7 @@
         <v>104742</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>2020</v>
       </c>
@@ -3202,7 +3224,7 @@
         <v>90999</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>2020</v>
       </c>
@@ -3216,7 +3238,7 @@
         <v>79560.11</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>2020</v>
       </c>
@@ -3230,7 +3252,7 @@
         <v>63769.3</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>2020</v>
       </c>
@@ -3244,7 +3266,7 @@
         <v>50619.199999999997</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>2020</v>
       </c>
@@ -3258,7 +3280,7 @@
         <v>35602.67</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>2020</v>
       </c>
@@ -3272,7 +3294,7 @@
         <v>25314.26</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>2020</v>
       </c>
@@ -3286,7 +3308,7 @@
         <v>17574.05</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>2020</v>
       </c>
